--- a/data/测试用例文件/阿里前置接口.xlsx
+++ b/data/测试用例文件/阿里前置接口.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="2616" windowWidth="16644" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -19,82 +20,77 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>案例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求报文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>输出参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运行时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开蓝票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://${URL}.sh.taeapp.com/einvoice/handle/save</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>URL=localqianzhi.sh.taeapp.com
+TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
+NSRSBH=91500000747150407A
+MC=阿里巴巴15
+LSH=$getRandomNumber(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;returncode&gt;4000&lt;/returncode&gt;</t>
+  </si>
+  <si>
+    <t>${fpdm}
+${fphm}</t>
   </si>
   <si>
     <t>开红票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BWTS=${TOKEN}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://${URL}.sh.taeapp.com/einvoice/handle/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,24 +157,6 @@
 &lt;/business&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve">URL=localqianzhi.sh.taeapp.com
-TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
-NSRSBH=91500000747150407A
-MC=阿里巴巴15
-LSH=$getRandom
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;returncode&gt;4000&lt;/returncode&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fpdm}
-${fphm}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -189,14 +167,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -540,11 +516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
@@ -598,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="115.2">
+    <row r="2" spans="1:13" ht="100.8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -612,25 +588,25 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -644,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -660,11 +636,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -674,10 +650,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/测试用例文件/阿里前置接口.xlsx
+++ b/data/测试用例文件/阿里前置接口.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2616" windowWidth="16644" windowHeight="7860"/>
+    <workbookView windowWidth="22368" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>编号</t>
   </si>
@@ -73,25 +73,7 @@
     <t>POST</t>
   </si>
   <si>
-    <t>URL=localqianzhi.sh.taeapp.com
-TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
-NSRSBH=91500000747150407A
-MC=阿里巴巴15
-LSH=$getRandomNumber(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;returncode&gt;4000&lt;/returncode&gt;</t>
-  </si>
-  <si>
-    <t>${fpdm}
-${fphm}</t>
-  </si>
-  <si>
-    <t>开红票</t>
-  </si>
-  <si>
     <t>BWTS=${TOKEN}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="gbk"?&gt;
@@ -155,14 +137,33 @@
   &lt;/COMMON_FPKJ_XMXXS&gt;
  &lt;/REQUEST_COMMON_FPKJ&gt;
 &lt;/business&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL=localqianzhi.sh.taeapp.com
+TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
+NSRSBH=91500000747150407A
+MC=阿里巴巴15
+LSH=$getRandomNumber(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;returncode&gt;4000&lt;/returncode&gt;</t>
+  </si>
+  <si>
+    <t>fpdm=$set{fpdm}
+fphm=$set{fphm}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,21 +172,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,9 +518,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -216,10 +783,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,28 +1122,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="49.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="30.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="32.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="32.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="100.8">
+    <row r="2" ht="100.8" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -594,23 +1208,23 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -620,40 +1234,61 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
+      <c r="K3" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/测试用例文件/阿里前置接口.xlsx
+++ b/data/测试用例文件/阿里前置接口.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>编号</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>运行时间</t>
+  </si>
+  <si>
+    <t>输出报文</t>
   </si>
   <si>
     <t>Yes</t>
@@ -143,14 +146,109 @@
 TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
 NSRSBH=91500000747150407A
 MC=阿里巴巴15
-LSH=$getRandomNumber(20)</t>
+LSH=$getRandomNumber{20}</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;returncode&gt;4000&lt;/returncode&gt;</t>
   </si>
   <si>
-    <t>fpdm=$set{fpdm}
-fphm=$set{fphm}</t>
+    <t>fpdm=$set{&lt;fpdm&gt;(.*?)&lt;/fpdm&gt;}
+fphm=$set{&lt;fphm&gt;(.*?)&lt;/fphm&gt;}</t>
+  </si>
+  <si>
+    <t>开红票</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="gbk"?&gt;
+&lt;business id="FPKJ"&gt;
+ &lt;CUSTOMDATA&gt;
+  &lt;DDXXS LSH="${LSH}"&gt;
+   &lt;DDXX&gt;
+    &lt;ZDDH&gt;10000062&lt;/ZDDH&gt;
+    &lt;REQ_INDEX&gt;HCTEST20170001&lt;/REQ_INDEX&gt;
+   &lt;/DDXX&gt;
+  &lt;/DDXXS&gt;
+ &lt;/CUSTOMDATA&gt;
+ &lt;REQUEST_COMMON_FPKJ&gt;
+  &lt;COMMON_FPKJ_FPT&gt;
+   &lt;KPLX&gt;1&lt;/KPLX&gt;
+   &lt;ZSFS&gt;0&lt;/ZSFS&gt;
+   &lt;KCE&gt;&lt;/KCE&gt;
+   &lt;FPZLBM&gt;&lt;/FPZLBM&gt;
+   &lt;XSF_NSRSBH&gt;${NSRSBH}&lt;/XSF_NSRSBH&gt;
+   &lt;XSF_MC&gt;${MC}&lt;/XSF_MC&gt;
+   &lt;XSF_DZ&gt;销售方地址75582404638&lt;/XSF_DZ&gt;
+   &lt;XSF_DH&gt;销售方电话11012345678&lt;/XSF_DH&gt;
+   &lt;XSF_YHZH&gt;销售方账号622848265825566332&lt;/XSF_YHZH&gt;
+   &lt;GMF_NSRSBH&gt;11010800000000000007&lt;/GMF_NSRSBH&gt;
+   &lt;GMF_MC&gt;购方名称&lt;/GMF_MC&gt;
+   &lt;GMF_DZ&gt;购方地址&lt;/GMF_DZ&gt;
+   &lt;GMF_DH&gt;购方电话18612031358&lt;/GMF_DH&gt;
+   &lt;GMF_YHZH&gt;购方银行账号888888888888888&lt;/GMF_YHZH&gt;
+   &lt;KPR&gt;开票人&lt;/KPR&gt;
+   &lt;SKR&gt;收款人&lt;/SKR&gt;
+   &lt;FHR&gt;复核人&lt;/FHR&gt;
+   &lt;YFP_DM&gt;${fpdm}&lt;/YFP_DM&gt;
+   &lt;YFP_HM&gt;${fphm}&lt;/YFP_HM&gt;
+   &lt;JSHJ&gt;-100.00&lt;/JSHJ&gt;
+    &lt;HJJE&gt;-100.00&lt;/HJJE&gt;
+   &lt;HJSE&gt;0&lt;/HJSE&gt;
+   &lt;BZ&gt;测试有特殊字符的哦&lt;/BZ&gt;
+    &lt;GMF_SJH&gt;&lt;/GMF_SJH&gt;
+   &lt;GMF_DZYX&gt;gaokemeng@baiwang.com&lt;/GMF_DZYX&gt;
+  &lt;/COMMON_FPKJ_FPT&gt;
+  &lt;COMMON_FPKJ_XMXXS&gt;
+   &lt;COMMON_FPKJ_XMXX&gt;
+    &lt;HH&gt;&lt;/HH&gt;
+    &lt;ZHDYHH&gt;&lt;/ZHDYHH&gt;
+    &lt;SPBM&gt;1010101050000000000&lt;/SPBM&gt;
+    &lt;ZXBM&gt;&lt;/ZXBM&gt;
+    &lt;YHZCBS&gt;0&lt;/YHZCBS&gt;
+                &lt;LSLBS&gt;&lt;/LSLBS&gt;
+    &lt;FPHXZ&gt;0&lt;/FPHXZ&gt;
+    &lt;XMMC&gt;修理修配劳务&lt;/XMMC&gt;
+    &lt;DW/&gt;
+    &lt;GGXH/&gt;
+    &lt;XMSL&gt;-1&lt;/XMSL&gt;
+     &lt;XMDJ&gt;100.00&lt;/XMDJ&gt;
+    &lt;XMJE&gt;-100.00&lt;/XMJE&gt;
+    &lt;SL&gt;0&lt;/SL&gt;
+    &lt;SE&gt;0&lt;/SE&gt;
+    &lt;HSBZ&gt;0&lt;/HSBZ&gt;
+     &lt;YHZCBS&gt;0&lt;/YHZCBS&gt;
+   &lt;/COMMON_FPKJ_XMXX&gt;
+  &lt;/COMMON_FPKJ_XMXXS&gt;
+ &lt;/REQUEST_COMMON_FPKJ&gt;
+ &lt;/business&gt;</t>
+  </si>
+  <si>
+    <t>URL=qianzhi3
+TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
+NSRSBH=91500000747150407A
+MC=阿里巴巴15
+LSH=$getRandomNumber{20}
+fpdm=$get{fpdm}
+fphm=$get{fphm}</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>查询开票数</t>
+  </si>
+  <si>
+    <t>http://${URL}.sh.taeapp.com/einvoice/integration/e-invoices/${NSRSBH}/count?startDate=2017-11-01&amp;endDate=2017-11-23</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>URL=qianzhi3
+NSRSBH=91500000747150407A
+TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ</t>
+  </si>
+  <si>
+    <t>"payee_register_no":"${NSRSBH}"</t>
   </si>
 </sst>
 </file>
@@ -766,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +879,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,15 +1232,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="13.8611111111111" customWidth="1"/>
     <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="49.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -1147,7 +1252,7 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,6 +1291,9 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="100.8" spans="1:11">
@@ -1193,63 +1301,97 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" ht="129.6" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="72" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/测试用例文件/阿里前置接口.xlsx
+++ b/data/测试用例文件/阿里前置接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9515"/>
+    <workbookView windowWidth="22368" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,21 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="D1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>全局变量</t>
+  </si>
+  <si>
+    <t>URL=localqianzhi
+NSRSBH=91500000747150407A
+MC=阿里巴巴15
+TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -52,16 +61,16 @@
     <t>输出参数</t>
   </si>
   <si>
+    <t>输出报文</t>
+  </si>
+  <si>
     <t>测试结果</t>
   </si>
   <si>
     <t>运行时间</t>
   </si>
   <si>
-    <t>输出报文</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>YES</t>
   </si>
   <si>
     <t>开票</t>
@@ -142,10 +151,10 @@
 &lt;/business&gt;</t>
   </si>
   <si>
-    <t>URL=qianzhi3
-TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
-NSRSBH=91500000747150407A
-MC=阿里巴巴15
+    <t>URL=${URL}
+TOKEN=${TOKEN}
+NSRSBH=${NSRSBH}
+MC=${MC}
 LSH=$getRandomNumber{20}</t>
   </si>
   <si>
@@ -153,7 +162,8 @@
   </si>
   <si>
     <t>fpdm=$set{&lt;fpdm&gt;(.*?)&lt;/fpdm&gt;}
-fphm=$set{&lt;fphm&gt;(.*?)&lt;/fphm&gt;}</t>
+fphm=$set{&lt;fphm&gt;(.*?)&lt;/fphm&gt;}
+LSH=${LSH}</t>
   </si>
   <si>
     <t>开红票</t>
@@ -222,18 +232,15 @@
  &lt;/business&gt;</t>
   </si>
   <si>
-    <t>URL=qianzhi3
-TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ
-NSRSBH=91500000747150407A
-MC=阿里巴巴15
+    <t>URL=${URL}
+TOKEN=${TOKEN}
+MC=${MC}
 LSH=$getRandomNumber{20}
+NSRSBH=${NSRSBH}
 fpdm=$get{fpdm}
 fphm=$get{fphm}</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>查询开票数</t>
   </si>
   <si>
@@ -243,9 +250,9 @@
     <t>GET</t>
   </si>
   <si>
-    <t>URL=qianzhi3
-NSRSBH=91500000747150407A
-TOKEN=OTE1MDAwMDA3NDcxNTA0MDdBOjE0OTg3MDc4OTUwOTE6cGVleHJucVhST2YyZmxpWlZMOW1uc1JnSkZVPQ</t>
+    <t>URL=${URL}
+NSRSBH=${NSRSBH}
+TOKEN=${TOKEN}</t>
   </si>
   <si>
     <t>"payee_register_no":"${NSRSBH}"</t>
@@ -257,8 +264,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -284,8 +291,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -316,103 +414,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,6 +430,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +538,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,157 +592,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,69 +621,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -704,6 +648,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -714,6 +673,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,166 +729,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" vertical="justify" wrapText="1"/>
@@ -1232,13 +1236,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="13.8611111111111" customWidth="1"/>
@@ -1252,148 +1256,163 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" ht="56" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="100.8" spans="1:11">
-      <c r="A2" s="2">
+    <row r="3" ht="72" spans="1:11">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" ht="129.6" spans="1:11">
-      <c r="A3" s="2">
+    <row r="4" ht="100.8" spans="1:11">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="4" ht="72" spans="1:10">
-      <c r="A4" s="1">
+    <row r="5" ht="43.2" spans="1:10">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
